--- a/assets/files/submission/dra_metadata.xlsx
+++ b/assets/files/submission/dra_metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\github\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.45\kisuzuki\www\assets\files\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" tabRatio="430" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -65,7 +65,24 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>YYYY-MM-DD (e.g, 2024-01-01)</t>
+          <t>YYYY-MM-DD (e.g, 2024-01-01)
+For immediate release, 
+enter date of submission.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
         </r>
       </text>
     </comment>
@@ -236,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="215">
   <si>
     <t>Library Source</t>
   </si>
@@ -565,10 +582,6 @@
     <t>AB 310 Genetic Analyzer</t>
   </si>
   <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>cDNA_randomPriming</t>
   </si>
   <si>
@@ -662,6 +675,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Experiment-2</t>
+  </si>
+  <si>
+    <t>Experiment-3</t>
+  </si>
+  <si>
+    <t>Experiment-4</t>
+  </si>
+  <si>
+    <t>Run-2</t>
+  </si>
+  <si>
+    <t>Run-3</t>
+  </si>
+  <si>
+    <t>Run-4</t>
+  </si>
+  <si>
     <t>Alias</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -741,12 +772,154 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2020-04-08 Bioinformation and DDBJ Center</t>
+    <t>This excel file is used to generate Submission, Experiment and Run XMLs for DDBJ Sequence Read Archive (DRA) submission. 
+Please see https://github.com/ddbj/submission-excel2xml for details.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>This excel file is used to generate Submission, Experiment and Run XMLs for DDBJ Sequence Read Archive (DRA) submission. 
-Please see https://github.com/ddbj/submission-excel2xml for details.</t>
+    <t>Experiment-1</t>
+  </si>
+  <si>
+    <t>Example experiment title 1</t>
+  </si>
+  <si>
+    <t>Example library name 1</t>
+  </si>
+  <si>
+    <t>Example library construction protocol 1</t>
+  </si>
+  <si>
+    <t>Example experiment title 2</t>
+  </si>
+  <si>
+    <t>Example library name 2</t>
+  </si>
+  <si>
+    <t>Example library construction protocol 2</t>
+  </si>
+  <si>
+    <t>Example experiment title 3</t>
+  </si>
+  <si>
+    <t>Example library name 3</t>
+  </si>
+  <si>
+    <t>Example library construction protocol 3</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Example experiment title 4</t>
+  </si>
+  <si>
+    <t>Example library name 4</t>
+  </si>
+  <si>
+    <t>Example library construction protocol 4</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>Run-1</t>
+  </si>
+  <si>
+    <t>Example run title 1</t>
+  </si>
+  <si>
+    <t>Example run title 2</t>
+  </si>
+  <si>
+    <t>Example run title 3</t>
+  </si>
+  <si>
+    <t>Example run title 4</t>
+  </si>
+  <si>
+    <t>run1.fastq.gz</t>
+  </si>
+  <si>
+    <t>run2.fastq.gz</t>
+  </si>
+  <si>
+    <t>run3_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>run3_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>accession.tab</t>
+  </si>
+  <si>
+    <t>run4.bam</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAMD00218641</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAMD00218642</t>
+  </si>
+  <si>
+    <t>SAMD00218643</t>
+  </si>
+  <si>
+    <t>SAMD00218644</t>
+  </si>
+  <si>
+    <t>537e142c7714d654276ac1e79b42a7b0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>c5779305e16004ff03afe52a0efffaf4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3f9d4730efc67d64ad331e9bfb8f6369</t>
+  </si>
+  <si>
+    <t>e3fc484ca37e30ecbb855bb0577a4026</t>
+  </si>
+  <si>
+    <t>c9f343549f617c61c5219c77f135195f</t>
+  </si>
+  <si>
+    <t>9c349d8e07027cd6cfc49219a321a9af</t>
+  </si>
+  <si>
+    <t>2020-10-09 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BioProject accession</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># Enter unique aliases in the format 'Experiment-n' (e.g, Experiment-1). Do NOT use the 'DRA submission ID_Experiment_n' format (e.g., 'test-0001_Experiment_0001').</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># Enter unique aliases in the format 'Run-n' (e.g, Run-1). Do NOT use the 'DRA submission ID_Run_n' format (e.g., 'test-0001_Run_0001').</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t># Enter unique aliases in the format 'Run-n' (e.g, Run-1). Do NOT use the 'DRA submission ID_Run_n' format (e.g., 'test-0001_Run_0001').</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -758,7 +931,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -819,6 +992,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -869,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <protection locked="0"/>
     </xf>
@@ -926,6 +1105,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1218,37 +1400,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="143.21875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="143.28515625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="26.4">
+    <row r="4" spans="1:1" ht="25.5">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1264,48 +1448,51 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>133</v>
+      <c r="D1" s="16" t="s">
+        <v>211</v>
       </c>
-      <c r="C1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1317,34 +1504,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="11" max="11" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>9</v>
@@ -1381,6 +1568,157 @@
       </c>
       <c r="M1" s="16" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1429,21 +1767,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="43" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="29.85546875" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>9</v>
@@ -1451,6 +1791,58 @@
       <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1464,15 +1856,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="41" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1480,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -1490,40 +1884,88 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
@@ -1533,7 +1975,9 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
@@ -27888,19 +28332,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -27949,7 +28395,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>28</v>
@@ -27961,7 +28407,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>
@@ -27974,7 +28420,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
@@ -27993,7 +28439,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>37</v>
@@ -28006,7 +28452,7 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -28019,7 +28465,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>43</v>
@@ -28056,10 +28502,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>48</v>
@@ -28073,10 +28519,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>72</v>
@@ -28086,7 +28532,7 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -28115,7 +28561,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>64</v>
@@ -28128,10 +28574,10 @@
     <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>19</v>
@@ -28144,7 +28590,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>47</v>
@@ -28160,10 +28606,10 @@
     <row r="14" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>57</v>
@@ -28176,13 +28622,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -28192,13 +28638,13 @@
     <row r="16" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -28214,7 +28660,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -28240,7 +28686,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>62</v>
@@ -28256,13 +28702,13 @@
     <row r="20" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -28272,7 +28718,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>65</v>
@@ -28288,13 +28734,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -28304,13 +28750,13 @@
     <row r="23" spans="1:8">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -28320,7 +28766,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>75</v>
@@ -28342,7 +28788,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -28384,7 +28830,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>86</v>
@@ -28403,7 +28849,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>82</v>
@@ -28475,10 +28921,10 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -28489,10 +28935,10 @@
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -28503,10 +28949,10 @@
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -28556,7 +29002,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -28575,12 +29021,12 @@
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -28630,7 +29076,7 @@
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="4:4">

--- a/assets/files/submission/dra_metadata.xlsx
+++ b/assets/files/submission/dra_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820" tabRatio="430" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29895" windowHeight="12120" tabRatio="430"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -1400,9 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -1856,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
